--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_16ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1752,28 +1752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.1840222102467</v>
+        <v>482.2233199951235</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.2960076323508</v>
+        <v>659.79922060875</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.2207395355283</v>
+        <v>596.8289090278722</v>
       </c>
       <c r="AD2" t="n">
-        <v>345184.0222102467</v>
+        <v>482223.3199951235</v>
       </c>
       <c r="AE2" t="n">
-        <v>472296.0076323508</v>
+        <v>659799.22060875</v>
       </c>
       <c r="AF2" t="n">
         <v>5.695349825644599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.55208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>427220.7395355283</v>
+        <v>596828.9090278723</v>
       </c>
     </row>
     <row r="3">
@@ -1858,28 +1858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.5715210301674</v>
+        <v>379.1779351962949</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.5761359634153</v>
+        <v>518.8079790854589</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.1134310574483</v>
+        <v>469.2936737131138</v>
       </c>
       <c r="AD3" t="n">
-        <v>271571.5210301674</v>
+        <v>379177.9351962949</v>
       </c>
       <c r="AE3" t="n">
-        <v>371576.1359634153</v>
+        <v>518807.9790854589</v>
       </c>
       <c r="AF3" t="n">
         <v>7.058706811040126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.23958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>336113.4310574483</v>
+        <v>469293.6737131138</v>
       </c>
     </row>
     <row r="4">
@@ -1964,28 +1964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>259.5767623358276</v>
+        <v>376.9706867424461</v>
       </c>
       <c r="AB4" t="n">
-        <v>355.1643779464129</v>
+        <v>515.7879243739739</v>
       </c>
       <c r="AC4" t="n">
-        <v>321.2679881915416</v>
+        <v>466.5618487846194</v>
       </c>
       <c r="AD4" t="n">
-        <v>259576.7623358276</v>
+        <v>376970.6867424461</v>
       </c>
       <c r="AE4" t="n">
-        <v>355164.3779464128</v>
+        <v>515787.9243739738</v>
       </c>
       <c r="AF4" t="n">
         <v>7.188045217417334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>321267.9881915416</v>
+        <v>466561.8487846194</v>
       </c>
     </row>
   </sheetData>
@@ -2261,28 +2261,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.1416792271284</v>
+        <v>420.9546527597531</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.8258662504885</v>
+        <v>575.9687271144848</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.285292348704</v>
+        <v>520.9990801758631</v>
       </c>
       <c r="AD2" t="n">
-        <v>295141.6792271284</v>
+        <v>420954.6527597531</v>
       </c>
       <c r="AE2" t="n">
-        <v>403825.8662504885</v>
+        <v>575968.7271144848</v>
       </c>
       <c r="AF2" t="n">
         <v>7.00293325921393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>365285.2923487041</v>
+        <v>520999.0801758631</v>
       </c>
     </row>
     <row r="3">
@@ -2367,28 +2367,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.9030994331998</v>
+        <v>359.3891400843922</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.0331779416461</v>
+        <v>491.732076593328</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.0082570996141</v>
+        <v>444.8018573535641</v>
       </c>
       <c r="AD3" t="n">
-        <v>252903.0994331998</v>
+        <v>359389.1400843922</v>
       </c>
       <c r="AE3" t="n">
-        <v>346033.1779416461</v>
+        <v>491732.076593328</v>
       </c>
       <c r="AF3" t="n">
         <v>7.96904155595459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>313008.2570996141</v>
+        <v>444801.8573535641</v>
       </c>
     </row>
   </sheetData>
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.0201742543968</v>
+        <v>350.8631535836872</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.3521442925559</v>
+        <v>480.0664457230858</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.9648519251013</v>
+        <v>434.2495779207619</v>
       </c>
       <c r="AD2" t="n">
-        <v>248020.1742543968</v>
+        <v>350863.1535836872</v>
       </c>
       <c r="AE2" t="n">
-        <v>339352.1442925559</v>
+        <v>480066.4457230858</v>
       </c>
       <c r="AF2" t="n">
         <v>1.070405974152723e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>306964.8519251013</v>
+        <v>434249.5779207619</v>
       </c>
     </row>
   </sheetData>
@@ -2961,28 +2961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.3301492028548</v>
+        <v>347.6384206161255</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.9350451077369</v>
+        <v>475.6542238116899</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.1601916800241</v>
+        <v>430.2584522759974</v>
       </c>
       <c r="AD2" t="n">
-        <v>243330.1492028548</v>
+        <v>347638.4206161255</v>
       </c>
       <c r="AE2" t="n">
-        <v>332935.0451077369</v>
+        <v>475654.2238116899</v>
       </c>
       <c r="AF2" t="n">
         <v>9.564801258278379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>301160.1916800241</v>
+        <v>430258.4522759974</v>
       </c>
     </row>
   </sheetData>
@@ -3258,28 +3258,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.9299335933075</v>
+        <v>364.9448518874368</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.4381377402307</v>
+        <v>499.3336465829599</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.2791295068957</v>
+        <v>451.677944172256</v>
       </c>
       <c r="AD2" t="n">
-        <v>253929.9335933074</v>
+        <v>364944.8518874368</v>
       </c>
       <c r="AE2" t="n">
-        <v>347438.1377402307</v>
+        <v>499333.6465829599</v>
       </c>
       <c r="AF2" t="n">
         <v>1.16758724581538e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>314279.1295068957</v>
+        <v>451677.944172256</v>
       </c>
     </row>
   </sheetData>
@@ -3555,28 +3555,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.9913899715802</v>
+        <v>436.105977829843</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.1438956140491</v>
+        <v>596.6994385046684</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.6641975063398</v>
+        <v>539.7512815667038</v>
       </c>
       <c r="AD2" t="n">
-        <v>309991.3899715802</v>
+        <v>436105.9778298429</v>
       </c>
       <c r="AE2" t="n">
-        <v>424143.8956140492</v>
+        <v>596699.4385046684</v>
       </c>
       <c r="AF2" t="n">
         <v>6.620880908223839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>383664.1975063398</v>
+        <v>539751.2815667038</v>
       </c>
     </row>
     <row r="3">
@@ -3661,28 +3661,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.7121761481251</v>
+        <v>361.5103918352227</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.5084365138375</v>
+        <v>494.6344668218368</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.2472804677236</v>
+        <v>447.4272475321943</v>
       </c>
       <c r="AD3" t="n">
-        <v>254712.1761481251</v>
+        <v>361510.3918352227</v>
       </c>
       <c r="AE3" t="n">
-        <v>348508.4365138375</v>
+        <v>494634.4668218368</v>
       </c>
       <c r="AF3" t="n">
         <v>7.739398180742779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>315247.2804677236</v>
+        <v>447427.2475321942</v>
       </c>
     </row>
     <row r="4">
@@ -3767,28 +3767,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.8739654454023</v>
+        <v>361.6721811324999</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.7298037680122</v>
+        <v>494.8558340760115</v>
       </c>
       <c r="AC4" t="n">
-        <v>315.4475207418508</v>
+        <v>447.6274878063215</v>
       </c>
       <c r="AD4" t="n">
-        <v>254873.9654454023</v>
+        <v>361672.1811324999</v>
       </c>
       <c r="AE4" t="n">
-        <v>348729.8037680121</v>
+        <v>494855.8340760116</v>
       </c>
       <c r="AF4" t="n">
         <v>7.737789358936612e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>315447.5207418508</v>
+        <v>447627.4878063215</v>
       </c>
     </row>
   </sheetData>
@@ -4064,28 +4064,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.9086845445032</v>
+        <v>381.3382578463929</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.35501678947</v>
+        <v>521.7638278420319</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.1541169415071</v>
+        <v>471.9674204129192</v>
       </c>
       <c r="AD2" t="n">
-        <v>261908.6845445032</v>
+        <v>381338.2578463929</v>
       </c>
       <c r="AE2" t="n">
-        <v>358355.01678947</v>
+        <v>521763.827842032</v>
       </c>
       <c r="AF2" t="n">
         <v>1.21640521948404e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>324154.1169415071</v>
+        <v>471967.4204129193</v>
       </c>
     </row>
   </sheetData>
@@ -4361,28 +4361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.0869754841381</v>
+        <v>377.1141354684739</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.5989623187195</v>
+        <v>515.9841972494361</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.3747806518248</v>
+        <v>466.7393896523183</v>
       </c>
       <c r="AD2" t="n">
-        <v>262086.9754841381</v>
+        <v>377114.1354684739</v>
       </c>
       <c r="AE2" t="n">
-        <v>358598.9623187195</v>
+        <v>515984.1972494361</v>
       </c>
       <c r="AF2" t="n">
         <v>8.270202506324908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>324374.7806518248</v>
+        <v>466739.3896523183</v>
       </c>
     </row>
     <row r="3">
@@ -4467,28 +4467,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.2328620550193</v>
+        <v>353.7057436745459</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.6431531244909</v>
+        <v>483.9558028916226</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.22808728255</v>
+        <v>437.7677402998808</v>
       </c>
       <c r="AD3" t="n">
-        <v>248232.8620550193</v>
+        <v>353705.743674546</v>
       </c>
       <c r="AE3" t="n">
-        <v>339643.1531244909</v>
+        <v>483955.8028916226</v>
       </c>
       <c r="AF3" t="n">
         <v>8.68187334284881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>307228.08728255</v>
+        <v>437767.7402998807</v>
       </c>
     </row>
   </sheetData>
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.876029808443</v>
+        <v>406.2718746054707</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.3069753598083</v>
+        <v>555.8791022853397</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.629257009695</v>
+        <v>502.8267809444463</v>
       </c>
       <c r="AD2" t="n">
-        <v>280876.029808443</v>
+        <v>406271.8746054707</v>
       </c>
       <c r="AE2" t="n">
-        <v>384306.9753598084</v>
+        <v>555879.1022853397</v>
       </c>
       <c r="AF2" t="n">
         <v>7.383175438587471e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>347629.2570096951</v>
+        <v>502826.7809444463</v>
       </c>
     </row>
     <row r="3">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.7756859558641</v>
+        <v>357.9376807235967</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.4906010839838</v>
+        <v>489.7461258620197</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.6129016122264</v>
+        <v>443.0054429727526</v>
       </c>
       <c r="AD3" t="n">
-        <v>251775.6859558641</v>
+        <v>357937.6807235967</v>
       </c>
       <c r="AE3" t="n">
-        <v>344490.6010839838</v>
+        <v>489746.1258620197</v>
       </c>
       <c r="AF3" t="n">
         <v>8.146123647200868e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>311612.9016122264</v>
+        <v>443005.4429727526</v>
       </c>
     </row>
   </sheetData>
@@ -5167,28 +5167,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.4033607037476</v>
+        <v>466.0488849597635</v>
       </c>
       <c r="AB2" t="n">
-        <v>450.7042103655079</v>
+        <v>637.6686450276575</v>
       </c>
       <c r="AC2" t="n">
-        <v>407.6896330955553</v>
+        <v>576.8104445197815</v>
       </c>
       <c r="AD2" t="n">
-        <v>329403.3607037477</v>
+        <v>466048.8849597635</v>
       </c>
       <c r="AE2" t="n">
-        <v>450704.2103655079</v>
+        <v>637668.6450276575</v>
       </c>
       <c r="AF2" t="n">
         <v>6.002079486240621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>407689.6330955553</v>
+        <v>576810.4445197815</v>
       </c>
     </row>
     <row r="3">
@@ -5273,28 +5273,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.1442390107028</v>
+        <v>376.4681039474815</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.2550216202587</v>
+        <v>515.1002684215152</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.1092792059894</v>
+        <v>465.9398217511323</v>
       </c>
       <c r="AD3" t="n">
-        <v>269144.2390107028</v>
+        <v>376468.1039474815</v>
       </c>
       <c r="AE3" t="n">
-        <v>368255.0216202587</v>
+        <v>515100.2684215152</v>
       </c>
       <c r="AF3" t="n">
         <v>7.268664205807022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>333109.2792059894</v>
+        <v>465939.8217511323</v>
       </c>
     </row>
     <row r="4">
@@ -5379,28 +5379,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.1188818736658</v>
+        <v>375.2045707573585</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.1696415809363</v>
+        <v>513.3714465676386</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.4636266651561</v>
+        <v>464.3759962285729</v>
       </c>
       <c r="AD4" t="n">
-        <v>258118.8818736658</v>
+        <v>375204.5707573585</v>
       </c>
       <c r="AE4" t="n">
-        <v>353169.6415809363</v>
+        <v>513371.4465676385</v>
       </c>
       <c r="AF4" t="n">
         <v>7.344837724525661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.82291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>319463.6266651562</v>
+        <v>464375.9962285729</v>
       </c>
     </row>
   </sheetData>
@@ -5676,28 +5676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.8227519081252</v>
+        <v>359.9913249410394</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.3455340949565</v>
+        <v>492.5560124807136</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.2451883849559</v>
+        <v>445.5471579562588</v>
       </c>
       <c r="AD2" t="n">
-        <v>245822.7519081252</v>
+        <v>359991.3249410394</v>
       </c>
       <c r="AE2" t="n">
-        <v>336345.5340949565</v>
+        <v>492556.0124807136</v>
       </c>
       <c r="AF2" t="n">
         <v>9.146454596268042e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>304245.1883849559</v>
+        <v>445547.1579562589</v>
       </c>
     </row>
     <row r="3">
@@ -5782,28 +5782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.0654729400497</v>
+        <v>349.7826348213194</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.3093916020459</v>
+        <v>478.5880322832905</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.3079338773333</v>
+        <v>432.9122621846944</v>
       </c>
       <c r="AD3" t="n">
-        <v>245065.4729400497</v>
+        <v>349782.6348213194</v>
       </c>
       <c r="AE3" t="n">
-        <v>335309.3916020459</v>
+        <v>478588.0322832905</v>
       </c>
       <c r="AF3" t="n">
         <v>9.241339445737466e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.61458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>303307.9338773332</v>
+        <v>432912.2621846945</v>
       </c>
     </row>
   </sheetData>
@@ -6079,28 +6079,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.6559253362367</v>
+        <v>352.9988725836504</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.5902510869727</v>
+        <v>482.9886306801076</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.9893569482622</v>
+        <v>436.8928736467981</v>
       </c>
       <c r="AD2" t="n">
-        <v>249655.9253362367</v>
+        <v>352998.8725836504</v>
       </c>
       <c r="AE2" t="n">
-        <v>341590.2510869727</v>
+        <v>482988.6306801076</v>
       </c>
       <c r="AF2" t="n">
         <v>1.029644743460135e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>308989.3569482623</v>
+        <v>436892.8736467981</v>
       </c>
     </row>
   </sheetData>
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.42041210029</v>
+        <v>358.0578556933398</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.1632791367827</v>
+        <v>489.9105545573679</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.9848889877028</v>
+        <v>443.1541788241938</v>
       </c>
       <c r="AD2" t="n">
-        <v>246420.4121002899</v>
+        <v>358057.8556933398</v>
       </c>
       <c r="AE2" t="n">
-        <v>337163.2791367827</v>
+        <v>489910.5545573679</v>
       </c>
       <c r="AF2" t="n">
         <v>1.114098452671952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>304984.8889877028</v>
+        <v>443154.1788241938</v>
       </c>
     </row>
   </sheetData>
@@ -10262,28 +10262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.9313109645893</v>
+        <v>406.5451618764538</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.6461252427077</v>
+        <v>556.2530259860825</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.2223546932438</v>
+        <v>503.1650178919954</v>
       </c>
       <c r="AD2" t="n">
-        <v>278931.3109645894</v>
+        <v>406545.1618764538</v>
       </c>
       <c r="AE2" t="n">
-        <v>381646.1252427077</v>
+        <v>556253.0259860825</v>
       </c>
       <c r="AF2" t="n">
         <v>1.264624741492743e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>345222.3546932438</v>
+        <v>503165.0178919954</v>
       </c>
     </row>
   </sheetData>
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.0789443109961</v>
+        <v>391.4226813911172</v>
       </c>
       <c r="AB2" t="n">
-        <v>377.7433913497256</v>
+        <v>535.5617810292914</v>
       </c>
       <c r="AC2" t="n">
-        <v>341.6920922454866</v>
+        <v>484.4485163135356</v>
       </c>
       <c r="AD2" t="n">
-        <v>276078.944310996</v>
+        <v>391422.6813911172</v>
       </c>
       <c r="AE2" t="n">
-        <v>377743.3913497257</v>
+        <v>535561.7810292915</v>
       </c>
       <c r="AF2" t="n">
         <v>7.823840733777519e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>341692.0922454866</v>
+        <v>484448.5163135356</v>
       </c>
     </row>
     <row r="3">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.8429547450486</v>
+        <v>355.6677418594408</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.8461529752641</v>
+        <v>486.6402953654468</v>
       </c>
       <c r="AC3" t="n">
-        <v>309.2208359194959</v>
+        <v>440.196028579712</v>
       </c>
       <c r="AD3" t="n">
-        <v>249842.9547450486</v>
+        <v>355667.7418594408</v>
       </c>
       <c r="AE3" t="n">
-        <v>341846.1529752641</v>
+        <v>486640.2953654468</v>
       </c>
       <c r="AF3" t="n">
         <v>8.425005450225544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>309220.8359194959</v>
+        <v>440196.028579712</v>
       </c>
     </row>
   </sheetData>
@@ -10962,28 +10962,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>314.3826019974785</v>
+        <v>450.6228742613558</v>
       </c>
       <c r="AB2" t="n">
-        <v>430.1521456344853</v>
+        <v>616.5620966425348</v>
       </c>
       <c r="AC2" t="n">
-        <v>389.0990285774574</v>
+        <v>557.7182754893081</v>
       </c>
       <c r="AD2" t="n">
-        <v>314382.6019974785</v>
+        <v>450622.8742613558</v>
       </c>
       <c r="AE2" t="n">
-        <v>430152.1456344853</v>
+        <v>616562.0966425348</v>
       </c>
       <c r="AF2" t="n">
         <v>6.321125517850803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>389099.0285774574</v>
+        <v>557718.2754893081</v>
       </c>
     </row>
     <row r="3">
@@ -11068,28 +11068,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>256.2713855838041</v>
+        <v>363.3710023063666</v>
       </c>
       <c r="AB3" t="n">
-        <v>350.641815651198</v>
+        <v>497.1802361527965</v>
       </c>
       <c r="AC3" t="n">
-        <v>317.1770528944316</v>
+        <v>449.7300522112169</v>
       </c>
       <c r="AD3" t="n">
-        <v>256271.3855838041</v>
+        <v>363371.0023063666</v>
       </c>
       <c r="AE3" t="n">
-        <v>350641.815651198</v>
+        <v>497180.2361527965</v>
       </c>
       <c r="AF3" t="n">
         <v>7.543569074080114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>317177.0528944316</v>
+        <v>449730.0522112169</v>
       </c>
     </row>
     <row r="4">
@@ -11174,28 +11174,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>256.5826992077397</v>
+        <v>363.6823159303021</v>
       </c>
       <c r="AB4" t="n">
-        <v>351.0677686856542</v>
+        <v>497.6061891872529</v>
       </c>
       <c r="AC4" t="n">
-        <v>317.5623535691083</v>
+        <v>450.1153528858937</v>
       </c>
       <c r="AD4" t="n">
-        <v>256582.6992077397</v>
+        <v>363682.3159303021</v>
       </c>
       <c r="AE4" t="n">
-        <v>351067.7686856543</v>
+        <v>497606.189187253</v>
       </c>
       <c r="AF4" t="n">
         <v>7.539544361512663e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>317562.3535691083</v>
+        <v>450115.3528858937</v>
       </c>
     </row>
   </sheetData>
@@ -11471,28 +11471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.5980863825938</v>
+        <v>468.9713108799029</v>
       </c>
       <c r="AB2" t="n">
-        <v>444.129422045564</v>
+        <v>641.6672370999246</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.7423333450934</v>
+        <v>580.4274165767306</v>
       </c>
       <c r="AD2" t="n">
-        <v>324598.0863825938</v>
+        <v>468971.3108799029</v>
       </c>
       <c r="AE2" t="n">
-        <v>444129.422045564</v>
+        <v>641667.2370999246</v>
       </c>
       <c r="AF2" t="n">
         <v>1.263803852786735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.43229166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>401742.3333450934</v>
+        <v>580427.4165767306</v>
       </c>
     </row>
   </sheetData>
@@ -11768,28 +11768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.8426331344158</v>
+        <v>355.0915966230315</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.8997599983223</v>
+        <v>485.8519880352578</v>
       </c>
       <c r="AC2" t="n">
-        <v>299.3191513249109</v>
+        <v>439.48295619472</v>
       </c>
       <c r="AD2" t="n">
-        <v>241842.6331344158</v>
+        <v>355091.5966230315</v>
       </c>
       <c r="AE2" t="n">
-        <v>330899.7599983223</v>
+        <v>485851.9880352578</v>
       </c>
       <c r="AF2" t="n">
         <v>9.910359126293805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.84895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>299319.1513249109</v>
+        <v>439482.95619472</v>
       </c>
     </row>
   </sheetData>
@@ -12065,28 +12065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.0788719492867</v>
+        <v>362.6699165011945</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.4324570682636</v>
+        <v>496.2209796244372</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.0374997622152</v>
+        <v>448.8623457795992</v>
       </c>
       <c r="AD2" t="n">
-        <v>248078.8719492866</v>
+        <v>362669.9165011945</v>
       </c>
       <c r="AE2" t="n">
-        <v>339432.4570682636</v>
+        <v>496220.9796244372</v>
       </c>
       <c r="AF2" t="n">
         <v>8.7856052360325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>307037.4997622152</v>
+        <v>448862.3457795992</v>
       </c>
     </row>
     <row r="3">
@@ -12171,28 +12171,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.2218276004038</v>
+        <v>352.3262550407509</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.2598111799945</v>
+        <v>482.068325684121</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.9767695517033</v>
+        <v>436.0604012679723</v>
       </c>
       <c r="AD3" t="n">
-        <v>247221.8276004038</v>
+        <v>352326.255040751</v>
       </c>
       <c r="AE3" t="n">
-        <v>338259.8111799945</v>
+        <v>482068.325684121</v>
       </c>
       <c r="AF3" t="n">
         <v>8.895806711158241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.69270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>305976.7695517033</v>
+        <v>436060.4012679723</v>
       </c>
     </row>
   </sheetData>
